--- a/管理/仕様＆企画/仕様/Fight/Player.xlsx
+++ b/管理/仕様＆企画/仕様/Fight/Player.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHub Repository\LoveBullet\管理\仕様＆企画\仕様\Fight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B4D3E0-0733-4440-8145-6FD03BC59201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC379C4-A6DF-4310-9565-792708EC25D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31110" yWindow="360" windowWidth="25290" windowHeight="11970" xr2:uid="{B986B299-FABF-4D18-B791-158A42493BAB}"/>
+    <workbookView xWindow="5235" yWindow="300" windowWidth="25125" windowHeight="11820" activeTab="1" xr2:uid="{B986B299-FABF-4D18-B791-158A42493BAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Anim" sheetId="1" r:id="rId1"/>
@@ -142,22 +142,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>11765</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>25773</xdr:rowOff>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>240365</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>108697</xdr:rowOff>
+      <xdr:colOff>298078</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>113739</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B2A09A-A629-D136-A0B1-F1002FC0E4C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B035C0-3CFB-04E4-AE34-53E8274BEE31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -179,58 +179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695324" y="6144185"/>
-          <a:ext cx="7747747" cy="4318747"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>677956</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>10647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>222997</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>96371</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD0BAD46-6E45-1719-9D93-727BEFE289BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="677956" y="11306176"/>
-          <a:ext cx="7747747" cy="4321548"/>
+          <a:off x="728384" y="5860676"/>
+          <a:ext cx="7772400" cy="4371975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -242,22 +192,72 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44821</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>273421</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>96931</xdr:rowOff>
+      <xdr:colOff>376517</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>203387</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B18F64C-BDDE-1649-D843-21631720BB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71963189-5640-7236-3480-5A5031FF2D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806823" y="11127441"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>291355</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>544608</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>113739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6136EB54-A09C-C121-7BFE-0FC187533433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,8 +279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="728380" y="16719176"/>
-          <a:ext cx="7747747" cy="4321549"/>
+          <a:off x="974914" y="16450235"/>
+          <a:ext cx="7772400" cy="4371975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -335,6 +335,56 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="742950" y="542925"/>
+          <a:ext cx="7772400" cy="4371975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678A0036-0FE4-5BCC-7F57-205FF523CCEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="5362575"/>
           <a:ext cx="7772400" cy="4371975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -646,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A156CC0-1FBD-4E2C-A44B-E52A0A87AF38}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -662,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB8F4BF-4B52-42FE-A0E9-871D67753008}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
